--- a/data/dataCrecimiento.xlsx
+++ b/data/dataCrecimiento.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\Work\Parroquias Datos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F958453D-3CBF-4FDE-A903-CDE06E6B7698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8C2B1-7C35-43B1-9E34-2A0246F39D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{35CAE9F1-F2DD-465E-AE66-6BEB0E83CC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$F$66</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -756,7 +759,7 @@
   <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1461,8 +1464,8 @@
       <c r="E35" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F35" s="8">
-        <v>-1.03</v>
+      <c r="F35" s="9">
+        <v>-1.03E-2</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -1541,8 +1544,8 @@
       <c r="E39" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="8">
-        <v>-0.85</v>
+      <c r="F39" s="9">
+        <v>-8.5000000000000006E-3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -2086,6 +2089,8 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F66" xr:uid="{5335B1FF-5225-4A81-B5A1-5B504FE63929}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/dataCrecimiento.xlsx
+++ b/data/dataCrecimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\Work\Parroquias Datos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A8C2B1-7C35-43B1-9E34-2A0246F39D48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A01EE-4E9F-40BB-A676-756F3CD90A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{35CAE9F1-F2DD-465E-AE66-6BEB0E83CC01}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35CAE9F1-F2DD-465E-AE66-6BEB0E83CC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="81">
   <si>
     <t>Provincia</t>
   </si>
@@ -273,6 +273,15 @@
   </si>
   <si>
     <t>Cod_Parr</t>
+  </si>
+  <si>
+    <t>Sangolquí</t>
+  </si>
+  <si>
+    <t>Cotogchoa</t>
+  </si>
+  <si>
+    <t>URBANA</t>
   </si>
 </sst>
 </file>
@@ -756,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335B1FF-5225-4A81-B5A1-5B504FE63929}">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2088,6 +2097,66 @@
         <v>-2.8199999999999999E-2</v>
       </c>
     </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="11">
+        <v>170501</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="11">
+        <v>170552</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" s="7">
+        <v>-1.38E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D69" s="11">
+        <v>170551</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="7">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F66" xr:uid="{5335B1FF-5225-4A81-B5A1-5B504FE63929}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/dataCrecimiento.xlsx
+++ b/data/dataCrecimiento.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andreidavid.flores\Downloads\Work\Parroquias Datos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039A01EE-4E9F-40BB-A676-756F3CD90A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642C67F4-1225-49EB-B0AF-005D66810180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{35CAE9F1-F2DD-465E-AE66-6BEB0E83CC01}"/>
+    <workbookView xWindow="42855" yWindow="3000" windowWidth="19200" windowHeight="11175" xr2:uid="{35CAE9F1-F2DD-465E-AE66-6BEB0E83CC01}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="83">
   <si>
     <t>Provincia</t>
   </si>
@@ -282,6 +282,12 @@
   </si>
   <si>
     <t>URBANA</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>San Rafael</t>
   </si>
 </sst>
 </file>
@@ -765,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5335B1FF-5225-4A81-B5A1-5B504FE63929}">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,6 +2163,46 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="5">
+        <v>170502</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F70" s="7">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" s="5">
+        <v>170503</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F71" s="7">
+        <v>3.1699999999999999E-2</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:F66" xr:uid="{5335B1FF-5225-4A81-B5A1-5B504FE63929}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
